--- a/data/processed/documents/APP-000025/assets_liabilities.xlsx
+++ b/data/processed/documents/APP-000025/assets_liabilities.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luna Al Suwaidi</t>
+          <t>Amira Al Jabri</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>7000</v>
+        <v>2281.69</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>125611</v>
+        <v>113019</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>19051</v>
+        <v>46463</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>106560</v>
+        <v>66556</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>6.59</v>
+        <v>2.43</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>116433</v>
+        <v>111120</v>
       </c>
     </row>
     <row r="3">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C3" s="8" t="n">
-        <v>9178</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="4">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C4" s="10" t="n">
-        <v>125611</v>
+        <v>113019</v>
       </c>
     </row>
   </sheetData>
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>19051</v>
+        <v>46463</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>953</v>
+        <v>2323</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>1</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C3" s="12" t="n">
-        <v>19051</v>
+        <v>46463</v>
       </c>
     </row>
   </sheetData>
